--- a/System 6 Renovation Working Files/BOTL Convertor Templates.xlsx
+++ b/System 6 Renovation Working Files/BOTL Convertor Templates.xlsx
@@ -2,17 +2,588 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19020" windowHeight="8325"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19020" windowHeight="8325" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SG12000601     " sheetId="7" r:id="rId1"/>
+    <sheet name="SG11039706     " sheetId="6" r:id="rId2"/>
+    <sheet name="SG11039103     " sheetId="5" r:id="rId3"/>
+    <sheet name="SG11029610     " sheetId="4" r:id="rId4"/>
+    <sheet name="Overall" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="188">
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>RunID</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>Provider ID</t>
+  </si>
+  <si>
+    <t>BASDEMO</t>
+  </si>
+  <si>
+    <t>Account ID</t>
+  </si>
+  <si>
+    <t>Last Name (Surname)</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Formal Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Language Code</t>
+  </si>
+  <si>
+    <t>Personal ID</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Sex Code</t>
+  </si>
+  <si>
+    <t>EMail Address</t>
+  </si>
+  <si>
+    <t>EMail Fulfillment</t>
+  </si>
+  <si>
+    <t>ProspectReference</t>
+  </si>
+  <si>
+    <t>Personality Code</t>
+  </si>
+  <si>
+    <t>Profit Code</t>
+  </si>
+  <si>
+    <t>AlternateFirstName</t>
+  </si>
+  <si>
+    <t>AlternateLastName</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Address Id</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Address Line 3</t>
+  </si>
+  <si>
+    <t>Address Line 4</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>FAX Phone</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>ADDRTYPE</t>
+  </si>
+  <si>
+    <t>Address ID</t>
+  </si>
+  <si>
+    <t>Address Type Code</t>
+  </si>
+  <si>
+    <t>PERSDEMO</t>
+  </si>
+  <si>
+    <t>Call Preference Code</t>
+  </si>
+  <si>
+    <t>Nationality Code</t>
+  </si>
+  <si>
+    <t>Race Code</t>
+  </si>
+  <si>
+    <t>Religion Code</t>
+  </si>
+  <si>
+    <t>Education Code</t>
+  </si>
+  <si>
+    <t>Occupation Code</t>
+  </si>
+  <si>
+    <t>Industry Code</t>
+  </si>
+  <si>
+    <t>Marital Status Code</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>DEPENDENT</t>
+  </si>
+  <si>
+    <t>Dependent Account ID</t>
+  </si>
+  <si>
+    <t>Relationship Code</t>
+  </si>
+  <si>
+    <t>CLAIM_DIARY</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>DIARY</t>
+  </si>
+  <si>
+    <t>SENSITIVITY</t>
+  </si>
+  <si>
+    <t>Sensitivity Code</t>
+  </si>
+  <si>
+    <t>SUPPRESS</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>COMPLAINT</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Received Via</t>
+  </si>
+  <si>
+    <t>Complainant</t>
+  </si>
+  <si>
+    <t>Reference Type</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Standard Complaint1</t>
+  </si>
+  <si>
+    <t>Standard Complaint4</t>
+  </si>
+  <si>
+    <t>Standard Complaint3</t>
+  </si>
+  <si>
+    <t>Standard Complaint5</t>
+  </si>
+  <si>
+    <t>Correspondence Type</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>CALLBACK</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Contact Person Name</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Call When</t>
+  </si>
+  <si>
+    <t>TRANSACTION</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Account ID for Session</t>
+  </si>
+  <si>
+    <t>CorrespondenceType</t>
+  </si>
+  <si>
+    <t>Free Text</t>
+  </si>
+  <si>
+    <t>Application Date</t>
+  </si>
+  <si>
+    <t>Application Number</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>Immediate Bill Code</t>
+  </si>
+  <si>
+    <t>TRANNEW</t>
+  </si>
+  <si>
+    <t>Seller ID</t>
+  </si>
+  <si>
+    <t>Suspension Reason 1</t>
+  </si>
+  <si>
+    <t>Suspension Reason 2</t>
+  </si>
+  <si>
+    <t>Suspension Reason 3</t>
+  </si>
+  <si>
+    <t>Replaced Policy</t>
+  </si>
+  <si>
+    <t>Policy Expiration Date</t>
+  </si>
+  <si>
+    <t>TRIP</t>
+  </si>
+  <si>
+    <t>Event From Date</t>
+  </si>
+  <si>
+    <t>Event To Date</t>
+  </si>
+  <si>
+    <t>Event Destination 1</t>
+  </si>
+  <si>
+    <t>Event Destination 2</t>
+  </si>
+  <si>
+    <t>Event Destination 3</t>
+  </si>
+  <si>
+    <t>Event Destination 4</t>
+  </si>
+  <si>
+    <t>Event Destination 5</t>
+  </si>
+  <si>
+    <t>Event Destination 6</t>
+  </si>
+  <si>
+    <t>Event Destination 7</t>
+  </si>
+  <si>
+    <t>Event Destination 8</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>Policy Holder Account ID</t>
+  </si>
+  <si>
+    <t>Policy Holder Address Type</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>Policy Payer Account ID</t>
+  </si>
+  <si>
+    <t>Policy Payer Address Type</t>
+  </si>
+  <si>
+    <t>Payment Method Code</t>
+  </si>
+  <si>
+    <t>Payment Frequency Code</t>
+  </si>
+  <si>
+    <t>Bill Account Number</t>
+  </si>
+  <si>
+    <t>Credit Card Expiration</t>
+  </si>
+  <si>
+    <t>Bank Code</t>
+  </si>
+  <si>
+    <t>Bank Branch Code</t>
+  </si>
+  <si>
+    <t>Credit Card Code</t>
+  </si>
+  <si>
+    <t>Name on Billing</t>
+  </si>
+  <si>
+    <t>Employee Number</t>
+  </si>
+  <si>
+    <t>Debit Day of Month</t>
+  </si>
+  <si>
+    <t>Tax Application Code</t>
+  </si>
+  <si>
+    <t>Last 5 Bill Account Number</t>
+  </si>
+  <si>
+    <t>BILLDATES</t>
+  </si>
+  <si>
+    <t>Billed To Date</t>
+  </si>
+  <si>
+    <t>Paid To Date</t>
+  </si>
+  <si>
+    <t>PRODUCT-MBDT01</t>
+  </si>
+  <si>
+    <t>Coverage Code</t>
+  </si>
+  <si>
+    <t>Number of Eligible Dependents</t>
+  </si>
+  <si>
+    <t>Premium Override Amount</t>
+  </si>
+  <si>
+    <t>Premium Override Expire</t>
+  </si>
+  <si>
+    <t>Premium Override Reason</t>
+  </si>
+  <si>
+    <t>PRODUCT-MBDT02</t>
+  </si>
+  <si>
+    <t>INSURED-MBDT01</t>
+  </si>
+  <si>
+    <t>INSURED-MBDT02</t>
+  </si>
+  <si>
+    <t>BENEFICIARY-MBDT01</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>BENEFICIARY-MBDT02</t>
+  </si>
+  <si>
+    <t>BENEF_DETAIL-MBDT01</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>BENEF_DETAIL-MBDT02</t>
+  </si>
+  <si>
+    <t>INDEXATION</t>
+  </si>
+  <si>
+    <t>Start Code</t>
+  </si>
+  <si>
+    <t>FreezeCode</t>
+  </si>
+  <si>
+    <t>EXCLUSION-MBDT01</t>
+  </si>
+  <si>
+    <t>Exclusion Code</t>
+  </si>
+  <si>
+    <t>EXCLUSION-MBDT02</t>
+  </si>
+  <si>
+    <t>HEALTH_HIST</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>POLREF</t>
+  </si>
+  <si>
+    <t>Reference Key</t>
+  </si>
+  <si>
+    <t>Reference Text</t>
+  </si>
+  <si>
+    <t>PREMCHECK</t>
+  </si>
+  <si>
+    <t>Premium Amount</t>
+  </si>
+  <si>
+    <t>PremCheck Action</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>PRODUCT-CBHIP4</t>
+  </si>
+  <si>
+    <t>PRODUCT-CBHI02</t>
+  </si>
+  <si>
+    <t>PRODUCT-CBHIP3</t>
+  </si>
+  <si>
+    <t>PRODUCT-CBHI01</t>
+  </si>
+  <si>
+    <t>RATING_INDIVIDUAL-CBHIP4</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Benefit Level</t>
+  </si>
+  <si>
+    <t>RATING_INDIVIDUAL-CBHI02</t>
+  </si>
+  <si>
+    <t>RATING_INDIVIDUAL-CBHIP3</t>
+  </si>
+  <si>
+    <t>RATING_INDIVIDUAL-CBHI01</t>
+  </si>
+  <si>
+    <t>INSURED-CBHIP4</t>
+  </si>
+  <si>
+    <t>INSURED-CBHI02</t>
+  </si>
+  <si>
+    <t>INSURED-CBHIP3</t>
+  </si>
+  <si>
+    <t>INSURED-CBHI01</t>
+  </si>
+  <si>
+    <t>EXCLUSION-CBHIP4</t>
+  </si>
+  <si>
+    <t>EXCLUSION-CBHI02</t>
+  </si>
+  <si>
+    <t>EXCLUSION-CBHIP3</t>
+  </si>
+  <si>
+    <t>EXCLUSION-CBHI01</t>
+  </si>
+  <si>
+    <t>Collector Code</t>
+  </si>
+  <si>
+    <t>PRODUCT-CBTV06</t>
+  </si>
+  <si>
+    <t>RATING_GROUP-CBTV06</t>
+  </si>
+  <si>
+    <t>INSURED-CBTV06</t>
+  </si>
+  <si>
+    <t>BENEFICIARY-CBTV06</t>
+  </si>
+  <si>
+    <t>BENEF_DETAIL-CBTV06</t>
+  </si>
+  <si>
+    <t>EXCLUSION-CBTV06</t>
+  </si>
+  <si>
+    <t>PRODUCT-AMPA09</t>
+  </si>
+  <si>
+    <t>RATING_GROUP-AMPA09</t>
+  </si>
+  <si>
+    <t>INSURED-AMPA09</t>
+  </si>
+  <si>
+    <t>EXCLUSION-AMPA09</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26,15 +597,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +619,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,36 +943,4199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B157"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>